--- a/Data/products_worksheet.xlsx
+++ b/Data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>991432</t>
+          <t>492395</t>
         </is>
       </c>
     </row>
